--- a/report/ipb3-01162017.xlsx
+++ b/report/ipb3-01162017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-2880" yWindow="-90" windowWidth="29805" windowHeight="12540" tabRatio="862" activeTab="5"/>
+    <workbookView xWindow="6225" yWindow="-30" windowWidth="12930" windowHeight="12540" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="25" r:id="rId1"/>
@@ -418,11 +418,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$K$4</c:f>
+              <c:f>summary!$E$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ipb3-32b-h2-V^2/Power</c:v>
+                  <c:v>ipb3-32b-he-V^2/Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,27 +486,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>summary!$K$5:$K$10</c:f>
+              <c:f>summary!$E$5:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.12849538486374876</c:v>
+                  <c:v>0.21855613807686525</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13970042662685012</c:v>
+                  <c:v>0.24258529562653702</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15262917829770717</c:v>
+                  <c:v>0.26988454676914719</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16970398467195705</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18802912624570103</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20279889602698256</c:v>
+                  <c:v>0.30351796585705976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,11 +512,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>summary!$E$4</c:f>
+              <c:f>summary!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ipb3-32b-he-V^2/Power</c:v>
+                  <c:v>ipb3-32b-h2-V^2/Power</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -583,21 +577,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>summary!$E$5:$E$8</c:f>
+              <c:f>summary!$K$5:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.21855613807686525</c:v>
+                  <c:v>0.12849538486374876</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24258529562653702</c:v>
+                  <c:v>0.13970042662685012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26988454676914719</c:v>
+                  <c:v>0.15262917829770717</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30351796585705976</c:v>
+                  <c:v>0.16970398467195705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.18802912624570103</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20279889602698256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,11 +612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="136393216"/>
-        <c:axId val="209336512"/>
+        <c:axId val="174952960"/>
+        <c:axId val="174953536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136393216"/>
+        <c:axId val="174952960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="400"/>
@@ -629,12 +629,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209336512"/>
+        <c:crossAx val="174953536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209336512"/>
+        <c:axId val="174953536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,7 +645,281 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136393216"/>
+        <c:crossAx val="174952960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ipb3-32b-he-HpDrop/V^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$B$5:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4756488057820736</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3715795139513443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2685691808245898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0847406398281443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>summary!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ipb3-32b-h2-HpDrop/V^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>summary!$B$5:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>summary!$M$5:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.168655432600513</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4179956185693108</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3855487392292249</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2278897032916083</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0424971820740514</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7986970667573989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="189329344"/>
+        <c:axId val="191463424"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="189329344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="191463424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="191463424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="189329344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -696,6 +970,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -993,8 +1299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9970,8 +10276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39:AA42"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10159,7 +10465,7 @@
         <v>0.75</v>
       </c>
       <c r="AD2" s="1">
-        <f>H2-I2</f>
+        <f t="shared" ref="AD2:AD28" si="0">H2-I2</f>
         <v>0</v>
       </c>
       <c r="AE2" s="1">
@@ -10264,7 +10570,7 @@
         <v>3.9614861463187481</v>
       </c>
       <c r="AD3" s="1">
-        <f>H3-I3</f>
+        <f t="shared" si="0"/>
         <v>0.44374148456789975</v>
       </c>
       <c r="AE3" s="1">
@@ -10337,7 +10643,7 @@
         <v>42741.871655092589</v>
       </c>
       <c r="U4" s="1">
-        <f t="shared" ref="U4:U7" si="0">$F$2-F4</f>
+        <f t="shared" ref="U4:U7" si="1">$F$2-F4</f>
         <v>1.5501641034481999</v>
       </c>
       <c r="X4" s="1">
@@ -10345,12 +10651,12 @@
         <v>0.23023095842470498</v>
       </c>
       <c r="Z4" s="1">
-        <f t="shared" ref="Z4:Z7" si="1">(H4-I4)^2</f>
+        <f t="shared" ref="Z4:Z7" si="2">(H4-I4)^2</f>
         <v>0.23023095842470498</v>
       </c>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1">
-        <f t="shared" ref="AB4:AB7" si="2">B4/A4</f>
+        <f t="shared" ref="AB4:AB7" si="3">B4/A4</f>
         <v>0.87234831783300704</v>
       </c>
       <c r="AC4" s="1">
@@ -10358,14 +10664,14 @@
         <v>5.1363415300636248</v>
       </c>
       <c r="AD4" s="1">
-        <f>H4-I4</f>
+        <f t="shared" si="0"/>
         <v>0.47982388271604925</v>
       </c>
       <c r="AE4" s="1">
         <v>1.4651331826347302</v>
       </c>
       <c r="AF4" s="1">
-        <f t="shared" ref="AF4:AF7" si="3">AE4/AD4</f>
+        <f t="shared" ref="AF4:AF7" si="4">AE4/AD4</f>
         <v>3.0534811530041504</v>
       </c>
     </row>
@@ -10431,7 +10737,7 @@
         <v>42741.913321759261</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7687643103448014</v>
       </c>
       <c r="X5" s="1">
@@ -10439,12 +10745,12 @@
         <v>0.26214915479075501</v>
       </c>
       <c r="Z5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26214915479075501</v>
       </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87247232260634311</v>
       </c>
       <c r="AC5" s="1">
@@ -10452,14 +10758,14 @@
         <v>6.1061601740965159</v>
       </c>
       <c r="AD5" s="1">
-        <f>H5-I5</f>
+        <f t="shared" si="0"/>
         <v>0.51200503395059993</v>
       </c>
       <c r="AE5" s="1">
         <v>1.5659629730538907</v>
       </c>
       <c r="AF5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0584913608583393</v>
       </c>
     </row>
@@ -10525,7 +10831,7 @@
         <v>42741.954988425925</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0208298965517013</v>
       </c>
       <c r="X6" s="1">
@@ -10533,12 +10839,12 @@
         <v>0.29617432332035459</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29617432332035459</v>
       </c>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87250304237228027</v>
       </c>
       <c r="AC6" s="1">
@@ -10546,14 +10852,14 @@
         <v>6.683943888088308</v>
       </c>
       <c r="AD6" s="1">
-        <f>H6-I6</f>
+        <f t="shared" si="0"/>
         <v>0.54421900308639959</v>
       </c>
       <c r="AE6" s="1">
         <v>1.6809959371257497</v>
       </c>
       <c r="AF6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.088822565166613</v>
       </c>
     </row>
@@ -10619,7 +10925,7 @@
         <v>42741.996655092589</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2427535517240997</v>
       </c>
       <c r="X7" s="1">
@@ -10627,12 +10933,12 @@
         <v>0.33097564060289703</v>
       </c>
       <c r="Z7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.33097564060289703</v>
       </c>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.87262794537494448</v>
       </c>
       <c r="AC7" s="1">
@@ -10640,14 +10946,14 @@
         <v>7.5157051792406691</v>
       </c>
       <c r="AD7" s="1">
-        <f>H7-I7</f>
+        <f t="shared" si="0"/>
         <v>0.57530482407407035</v>
       </c>
       <c r="AE7" s="1">
         <v>1.7783917275448893</v>
       </c>
       <c r="AF7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0912164354038545</v>
       </c>
     </row>
@@ -10716,7 +11022,7 @@
       <c r="AA8" s="1"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1">
-        <f>H8-I8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE8" s="1">
@@ -10788,7 +11094,7 @@
       <c r="AA9" s="1"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1">
-        <f>H9-I9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE9" s="1">
@@ -10893,7 +11199,7 @@
         <v>2.2979134485596227</v>
       </c>
       <c r="AD10" s="1">
-        <f>H10-I10</f>
+        <f t="shared" si="0"/>
         <v>0.51956518827160014</v>
       </c>
       <c r="AE10" s="1">
@@ -10966,7 +11272,7 @@
         <v>42742.204988425925</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" ref="U11:U14" si="4">$F$9-F11</f>
+        <f t="shared" ref="U11:U14" si="5">$F$9-F11</f>
         <v>1.8479546206896984</v>
       </c>
       <c r="X11" s="1">
@@ -10974,12 +11280,12 @@
         <v>0.31643673337305089</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" ref="Z11:Z14" si="5">(H11-I11)^2</f>
+        <f t="shared" ref="Z11:Z14" si="6">(H11-I11)^2</f>
         <v>0.31643673337305089</v>
       </c>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1">
-        <f t="shared" ref="AB11:AB14" si="6">B11/A11</f>
+        <f t="shared" ref="AB11:AB14" si="7">B11/A11</f>
         <v>0.8765381318454909</v>
       </c>
       <c r="AC11" s="1">
@@ -10987,14 +11293,14 @@
         <v>3.2581420092593127</v>
       </c>
       <c r="AD11" s="1">
-        <f>H11-I11</f>
+        <f t="shared" si="0"/>
         <v>0.56252709567900006</v>
       </c>
       <c r="AE11" s="1">
         <v>1.4797486047903998</v>
       </c>
       <c r="AF11" s="1">
-        <f t="shared" ref="AF11:AF14" si="7">AE11/AD11</f>
+        <f t="shared" ref="AF11:AF14" si="8">AE11/AD11</f>
         <v>2.6305374730514353</v>
       </c>
     </row>
@@ -11060,7 +11366,7 @@
         <v>42742.246655092589</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1614524827585981</v>
       </c>
       <c r="X12" s="1">
@@ -11068,12 +11374,12 @@
         <v>0.36660345150823864</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.36660345150823864</v>
       </c>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87651529839658171</v>
       </c>
       <c r="AC12" s="1">
@@ -11081,14 +11387,14 @@
         <v>3.9955188590535045</v>
       </c>
       <c r="AD12" s="1">
-        <f>H12-I12</f>
+        <f t="shared" si="0"/>
         <v>0.60547787037037004</v>
       </c>
       <c r="AE12" s="1">
         <v>1.6014283473053812</v>
       </c>
       <c r="AF12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6448998810242057</v>
       </c>
     </row>
@@ -11154,7 +11460,7 @@
         <v>42742.288321759261</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.4181013793104</v>
       </c>
       <c r="X13" s="1">
@@ -11162,12 +11468,12 @@
         <v>0.41640680811675218</v>
       </c>
       <c r="Z13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.41640680811675218</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87642509392672363</v>
       </c>
       <c r="AC13" s="1">
@@ -11175,14 +11481,14 @@
         <v>4.2644493569958897</v>
       </c>
       <c r="AD13" s="1">
-        <f>H13-I13</f>
+        <f t="shared" si="0"/>
         <v>0.64529590740740961</v>
       </c>
       <c r="AE13" s="1">
         <v>1.7074214730539001</v>
       </c>
       <c r="AF13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6459511883683993</v>
       </c>
     </row>
@@ -11248,7 +11554,7 @@
         <v>42742.329988425925</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.7033939655173</v>
       </c>
       <c r="X14" s="1">
@@ -11256,12 +11562,12 @@
         <v>0.46429396407255247</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.46429396407255247</v>
       </c>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8764008782790923</v>
       </c>
       <c r="AC14" s="1">
@@ -11269,14 +11575,14 @@
         <v>4.2913761008229869</v>
       </c>
       <c r="AD14" s="1">
-        <f>H14-I14</f>
+        <f t="shared" si="0"/>
         <v>0.68139119753086952</v>
       </c>
       <c r="AE14" s="1">
         <v>1.8019302964071704</v>
       </c>
       <c r="AF14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.6444871946346744</v>
       </c>
     </row>
@@ -11345,7 +11651,7 @@
       <c r="AA15" s="1"/>
       <c r="AC15" s="1"/>
       <c r="AD15" s="1">
-        <f>H15-I15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE15" s="1">
@@ -11417,7 +11723,7 @@
       <c r="AA16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1">
-        <f>H16-I16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE16" s="1">
@@ -11522,7 +11828,7 @@
         <v>1.189987568415674</v>
       </c>
       <c r="AD17" s="1">
-        <f>H17-I17</f>
+        <f t="shared" si="0"/>
         <v>0.61418849378882001</v>
       </c>
       <c r="AE17" s="1">
@@ -11595,7 +11901,7 @@
         <v>42742.538321759261</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" ref="U18:U21" si="8">$F$16-F18</f>
+        <f t="shared" ref="U18:U21" si="9">$F$16-F18</f>
         <v>2.2709196551723991</v>
       </c>
       <c r="X18" s="1">
@@ -11603,12 +11909,12 @@
         <v>0.45382103915394756</v>
       </c>
       <c r="Z18" s="1">
-        <f t="shared" ref="Z18:Z21" si="9">(H18-I18)^2</f>
+        <f t="shared" ref="Z18:Z21" si="10">(H18-I18)^2</f>
         <v>0.45382103915394756</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1">
-        <f t="shared" ref="AB18:AB21" si="10">B18/A18</f>
+        <f t="shared" ref="AB18:AB21" si="11">B18/A18</f>
         <v>0.87700400494244035</v>
       </c>
       <c r="AC18" s="1">
@@ -11616,14 +11922,14 @@
         <v>0.66561329783947087</v>
       </c>
       <c r="AD18" s="1">
-        <f>H18-I18</f>
+        <f t="shared" si="0"/>
         <v>0.67366240740741024</v>
       </c>
       <c r="AE18" s="1">
         <v>1.59011249401199</v>
       </c>
       <c r="AF18" s="1">
-        <f t="shared" ref="AF18:AF21" si="11">AE18/AD18</f>
+        <f t="shared" ref="AF18:AF21" si="12">AE18/AD18</f>
         <v>2.3603996252834381</v>
       </c>
     </row>
@@ -11689,7 +11995,7 @@
         <v>42742.579988425925</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6177992413792985</v>
       </c>
       <c r="X19" s="1">
@@ -11697,12 +12003,12 @@
         <v>0.51998532128086372</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.51998532128086372</v>
       </c>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.87688847848683105</v>
       </c>
       <c r="AC19" s="1">
@@ -11710,14 +12016,14 @@
         <v>0.2417317968107966</v>
       </c>
       <c r="AD19" s="1">
-        <f>H19-I19</f>
+        <f t="shared" si="0"/>
         <v>0.72110007716048941</v>
       </c>
       <c r="AE19" s="1">
         <v>1.7157364341317303</v>
       </c>
       <c r="AF19" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.379331924200963</v>
       </c>
     </row>
@@ -11783,7 +12089,7 @@
         <v>42742.621655092589</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9827759310344</v>
       </c>
       <c r="X20" s="1">
@@ -11791,12 +12097,12 @@
         <v>0.59421258226177154</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.59421258226177154</v>
       </c>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.87678446219978023</v>
       </c>
       <c r="AC20" s="1">
@@ -11804,14 +12110,14 @@
         <v>9.5917741769468989E-3</v>
       </c>
       <c r="AD20" s="1">
-        <f>H20-I20</f>
+        <f t="shared" si="0"/>
         <v>0.77085185493826991</v>
       </c>
       <c r="AE20" s="1">
         <v>1.8373559251496996</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3835396041134724</v>
       </c>
     </row>
@@ -11877,7 +12183,7 @@
         <v>42742.663321759261</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.288754586206899</v>
       </c>
       <c r="X21" s="1">
@@ -11885,12 +12191,12 @@
         <v>0.66463413764446444</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.66463413764446444</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.87664108628493131</v>
       </c>
       <c r="AC21" s="1">
@@ -11898,14 +12204,14 @@
         <v>-0.38743054372437769</v>
       </c>
       <c r="AD21" s="1">
-        <f>H21-I21</f>
+        <f t="shared" si="0"/>
         <v>0.81525096604939051</v>
       </c>
       <c r="AE21" s="1">
         <v>1.9460482395209597</v>
       </c>
       <c r="AF21" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.387054196269498</v>
       </c>
     </row>
@@ -11974,7 +12280,7 @@
       <c r="AA22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1">
-        <f>H22-I22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE22" s="1">
@@ -12046,7 +12352,7 @@
       <c r="AA23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1">
-        <f>H23-I23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE23" s="1">
@@ -12151,7 +12457,7 @@
         <v>7.1358423719468398</v>
       </c>
       <c r="AD24" s="1">
-        <f>H24-I24</f>
+        <f t="shared" si="0"/>
         <v>0.71166279012345068</v>
       </c>
       <c r="AE24" s="1">
@@ -12224,7 +12530,7 @@
         <v>42742.871655092589</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" ref="U25:U28" si="12">$F$23-F25</f>
+        <f t="shared" ref="U25:U28" si="13">$F$23-F25</f>
         <v>2.5361842413793028</v>
       </c>
       <c r="X25" s="1">
@@ -12232,12 +12538,12 @@
         <v>0.59740876637606088</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" ref="Z25:Z28" si="13">(H25-I25)^2</f>
+        <f t="shared" ref="Z25:Z28" si="14">(H25-I25)^2</f>
         <v>0.59740876637606088</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1">
-        <f t="shared" ref="AB25:AB28" si="14">B25/A25</f>
+        <f t="shared" ref="AB25:AB28" si="15">B25/A25</f>
         <v>0.88015969831571172</v>
       </c>
       <c r="AC25" s="1">
@@ -12245,14 +12551,14 @@
         <v>8.113675598815199</v>
       </c>
       <c r="AD25" s="1">
-        <f>H25-I25</f>
+        <f t="shared" si="0"/>
         <v>0.77292222530864052</v>
       </c>
       <c r="AE25" s="1">
         <v>1.7013053532934306</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" ref="AF25:AF28" si="15">AE25/AD25</f>
+        <f t="shared" ref="AF25:AF28" si="16">AE25/AD25</f>
         <v>2.2011339531788874</v>
       </c>
     </row>
@@ -12318,7 +12624,7 @@
         <v>42742.913321759261</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.9372201034483005</v>
       </c>
       <c r="X26" s="1">
@@ -12326,12 +12632,12 @@
         <v>0.69603440697517294</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.69603440697517294</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.88008583422544207</v>
       </c>
       <c r="AC26" s="1">
@@ -12339,14 +12645,14 @@
         <v>9.2816209762876802</v>
       </c>
       <c r="AD26" s="1">
-        <f>H26-I26</f>
+        <f t="shared" si="0"/>
         <v>0.83428676543211022</v>
       </c>
       <c r="AE26" s="1">
         <v>1.8416487215568802</v>
       </c>
       <c r="AF26" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.2074528781515759</v>
       </c>
     </row>
@@ -12412,7 +12718,7 @@
         <v>42742.954988425925</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.3446616206897026</v>
       </c>
       <c r="X27" s="1">
@@ -12420,12 +12726,12 @@
         <v>0.78815826051881455</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.78815826051881455</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.88001353727527343</v>
       </c>
       <c r="AC27" s="1">
@@ -12433,14 +12739,14 @@
         <v>10.295521853826553</v>
       </c>
       <c r="AD27" s="1">
-        <f>H27-I27</f>
+        <f t="shared" si="0"/>
         <v>0.8877827777777707</v>
       </c>
       <c r="AE27" s="1">
         <v>1.9656715538922098</v>
       </c>
       <c r="AF27" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.2141357132569377</v>
       </c>
     </row>
@@ -12506,7 +12812,7 @@
         <v>42742.996655092589</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.7293974482759005</v>
       </c>
       <c r="V28" s="4"/>
@@ -12517,12 +12823,12 @@
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.89635850672398665</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.87992454693394728</v>
       </c>
       <c r="AC28" s="4">
@@ -12530,14 +12836,14 @@
         <v>11.565179983622031</v>
       </c>
       <c r="AD28" s="4">
-        <f>H28-I28</f>
+        <f t="shared" si="0"/>
         <v>0.94676211728394932</v>
       </c>
       <c r="AE28" s="4">
         <v>2.0778447784431204</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.1946851701291097</v>
       </c>
     </row>
@@ -12777,7 +13083,7 @@
         <v>6.6458525895560179</v>
       </c>
       <c r="AD31" s="1">
-        <f>H31-I31</f>
+        <f t="shared" ref="AD31:AD43" si="17">H31-I31</f>
         <v>0.53558645370370073</v>
       </c>
       <c r="AE31" s="1">
@@ -12850,7 +13156,7 @@
         <v>42743.204988425925</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" ref="U32:U35" si="16">$F$30-F32</f>
+        <f t="shared" ref="U32:U35" si="18">$F$30-F32</f>
         <v>1.7363127241378962</v>
       </c>
       <c r="X32" s="1">
@@ -12858,12 +13164,12 @@
         <v>0.33853591078483086</v>
       </c>
       <c r="Z32" s="1">
-        <f t="shared" ref="Z32:Z35" si="17">(H32-I32)^2</f>
+        <f t="shared" ref="Z32:Z35" si="19">(H32-I32)^2</f>
         <v>0.33853591078483086</v>
       </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1">
-        <f t="shared" ref="AB32:AB35" si="18">B32/A32</f>
+        <f t="shared" ref="AB32:AB35" si="20">B32/A32</f>
         <v>0.88779710102332643</v>
       </c>
       <c r="AC32" s="1">
@@ -12871,14 +13177,14 @@
         <v>7.7376796880891163</v>
       </c>
       <c r="AD32" s="1">
-        <f>H32-I32</f>
+        <f t="shared" si="17"/>
         <v>0.58183838888890005</v>
       </c>
       <c r="AE32" s="1">
         <v>1.56242892814371</v>
       </c>
       <c r="AF32" s="1">
-        <f t="shared" ref="AF32:AF35" si="19">AE32/AD32</f>
+        <f t="shared" ref="AF32:AF35" si="21">AE32/AD32</f>
         <v>2.6853314562612165</v>
       </c>
     </row>
@@ -12944,7 +13250,7 @@
         <v>42743.246655092589</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.9856767586206985</v>
       </c>
       <c r="X33" s="1">
@@ -12952,12 +13258,12 @@
         <v>0.39553954725153212</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.39553954725153212</v>
       </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.88796973363584708</v>
       </c>
       <c r="AC33" s="1">
@@ -12965,14 +13271,14 @@
         <v>8.7188262578488853</v>
       </c>
       <c r="AD33" s="1">
-        <f>H33-I33</f>
+        <f t="shared" si="17"/>
         <v>0.62891934876542965</v>
       </c>
       <c r="AE33" s="1">
         <v>1.6813388233533004</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.6733774794077698</v>
       </c>
     </row>
@@ -13038,7 +13344,7 @@
         <v>42743.288321759261</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2516136896551018</v>
       </c>
       <c r="X34" s="1">
@@ -13046,12 +13352,12 @@
         <v>0.44864149167199563</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.44864149167199563</v>
       </c>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.8881281200841652</v>
       </c>
       <c r="AC34" s="1">
@@ -13059,14 +13365,14 @@
         <v>9.6610860532490577</v>
       </c>
       <c r="AD34" s="1">
-        <f>H34-I34</f>
+        <f t="shared" si="17"/>
         <v>0.66980705555554998</v>
       </c>
       <c r="AE34" s="1">
         <v>1.7978950718562903</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.6841984672214059</v>
       </c>
     </row>
@@ -13132,7 +13438,7 @@
         <v>42743.329988425925</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.5096454137931019</v>
       </c>
       <c r="X35" s="1">
@@ -13140,12 +13446,12 @@
         <v>0.50637836399234915</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.50637836399234915</v>
       </c>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.88832097338328331</v>
       </c>
       <c r="AC35" s="1">
@@ -13153,14 +13459,14 @@
         <v>10.790540287319125</v>
       </c>
       <c r="AD35" s="1">
-        <f>H35-I35</f>
+        <f t="shared" si="17"/>
         <v>0.71160267283952017</v>
       </c>
       <c r="AE35" s="1">
         <v>1.9103098742515101</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.684517564596502</v>
       </c>
     </row>
@@ -13229,7 +13535,7 @@
       <c r="AA36" s="1"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1">
-        <f>H36-I36</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE36" s="1">
@@ -13301,7 +13607,7 @@
       <c r="AA37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1">
-        <f>H37-I37</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE37" s="1">
@@ -13406,7 +13712,7 @@
         <v>6.5830485540953099</v>
       </c>
       <c r="AD38" s="1">
-        <f>H38-I38</f>
+        <f t="shared" si="17"/>
         <v>0.5340303888889002</v>
       </c>
       <c r="AE38" s="1">
@@ -13479,7 +13785,7 @@
         <v>42743.538321759261</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" ref="U39:U42" si="20">$F$37-F39</f>
+        <f t="shared" ref="U39:U42" si="22">$F$37-F39</f>
         <v>1.6476454137931</v>
       </c>
       <c r="X39" s="1">
@@ -13487,12 +13793,12 @@
         <v>0.33937568611372737</v>
       </c>
       <c r="Z39" s="1">
-        <f t="shared" ref="Z39:Z42" si="21">(H39-I39)^2</f>
+        <f t="shared" ref="Z39:Z42" si="23">(H39-I39)^2</f>
         <v>0.33937568611372737</v>
       </c>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1">
-        <f t="shared" ref="AB39:AB42" si="22">B39/A39</f>
+        <f t="shared" ref="AB39:AB42" si="24">B39/A39</f>
         <v>0.8971758490180296</v>
       </c>
       <c r="AC39" s="1">
@@ -13500,14 +13806,14 @@
         <v>7.3522021563455198</v>
       </c>
       <c r="AD39" s="1">
-        <f>H39-I39</f>
+        <f t="shared" si="17"/>
         <v>0.58255959876542018</v>
       </c>
       <c r="AE39" s="1">
         <v>1.5077102994012108</v>
       </c>
       <c r="AF39" s="1">
-        <f t="shared" ref="AF39:AF42" si="23">AE39/AD39</f>
+        <f t="shared" ref="AF39:AF42" si="25">AE39/AD39</f>
         <v>2.5880790610890303</v>
       </c>
     </row>
@@ -13573,7 +13879,7 @@
         <v>42743.580104166664</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.9012095862069032</v>
       </c>
       <c r="X40" s="1">
@@ -13581,12 +13887,12 @@
         <v>0.39130200461908049</v>
       </c>
       <c r="Z40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.39130200461908049</v>
       </c>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.89748750337733252</v>
       </c>
       <c r="AC40" s="1">
@@ -13594,14 +13900,14 @@
         <v>8.2657543840989192</v>
       </c>
       <c r="AD40" s="1">
-        <f>H40-I40</f>
+        <f t="shared" si="17"/>
         <v>0.62554136923074921</v>
       </c>
       <c r="AE40" s="1">
         <v>1.633310242514959</v>
       </c>
       <c r="AF40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.6110347338394253</v>
       </c>
     </row>
@@ -13667,7 +13973,7 @@
         <v>42743.621770833335</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.1020506896552007</v>
       </c>
       <c r="X41" s="1">
@@ -13675,12 +13981,12 @@
         <v>0.45039495381269867</v>
       </c>
       <c r="Z41" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.45039495381269867</v>
       </c>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.89774586250705279</v>
       </c>
       <c r="AC41" s="1">
@@ -13688,14 +13994,14 @@
         <v>9.0830135005309458</v>
       </c>
       <c r="AD41" s="1">
-        <f>H41-I41</f>
+        <f t="shared" si="17"/>
         <v>0.67111470987655952</v>
       </c>
       <c r="AE41" s="1">
         <v>1.7416647065868194</v>
       </c>
       <c r="AF41" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.5951818384478114</v>
       </c>
     </row>
@@ -13761,7 +14067,7 @@
         <v>42743.663437499999</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.3860984137932064</v>
       </c>
       <c r="X42" s="1">
@@ -13769,12 +14075,12 @@
         <v>0.50372377022501547</v>
       </c>
       <c r="Z42" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.50372377022501547</v>
       </c>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.89810149181415611</v>
       </c>
       <c r="AC42" s="1">
@@ -13782,14 +14088,14 @@
         <v>10.026511042944335</v>
       </c>
       <c r="AD42" s="1">
-        <f>H42-I42</f>
+        <f t="shared" si="17"/>
         <v>0.70973500000001088</v>
       </c>
       <c r="AE42" s="1">
         <v>1.8277303023952198</v>
       </c>
       <c r="AF42" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.5752292086415238</v>
       </c>
     </row>
@@ -13857,7 +14163,7 @@
       <c r="Z43"/>
       <c r="AA43" s="1"/>
       <c r="AD43" s="1">
-        <f>H43-I43</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
